--- a/data/flights.xlsx
+++ b/data/flights.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbhav\Project_Travel App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2271eb4b80aae561/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C72D5-BF16-48BA-A808-543645632B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79BBDA4-5EFF-456A-BC4E-7617B68F28DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01F05E53-EE93-4DCA-A3B0-4C5B0F22B5D8}"/>
   </bookViews>
@@ -36,45 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="120">
   <si>
-    <t xml:space="preserve">Flight Number </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Airline </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Origin </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Destination </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Departure Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arrival Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Duration </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seats Available </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stops </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aircraft </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gate </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">AI101 </t>
   </si>
   <si>
@@ -394,6 +355,45 @@
   </si>
   <si>
     <t>6E265</t>
+  </si>
+  <si>
+    <t>Flight Number</t>
+  </si>
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Departure Time</t>
+  </si>
+  <si>
+    <t>Arrival Time</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Seats Available</t>
+  </si>
+  <si>
+    <t>Stops</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,66 +759,66 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>5500</v>
@@ -827,39 +827,39 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>4200</v>
@@ -868,39 +868,39 @@
         <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>6100</v>
@@ -909,39 +909,39 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>4800</v>
@@ -950,39 +950,39 @@
         <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L5">
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>5300</v>
@@ -991,39 +991,39 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
       </c>
       <c r="H7">
         <v>4700</v>
@@ -1032,16 +1032,16 @@
         <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1049,22 +1049,22 @@
         <v>6.0000000000000004E+210</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>5600</v>
@@ -1073,39 +1073,39 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L8">
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>5000</v>
@@ -1114,39 +1114,39 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>4600</v>
@@ -1155,39 +1155,39 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L10">
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>5900</v>
@@ -1196,39 +1196,39 @@
         <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>5400</v>
@@ -1237,39 +1237,39 @@
         <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L12">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>5100</v>
@@ -1278,39 +1278,39 @@
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>4800</v>
@@ -1319,39 +1319,39 @@
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L14">
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>4500</v>
@@ -1360,39 +1360,39 @@
         <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H16">
         <v>6000</v>
@@ -1401,39 +1401,39 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>5700</v>
@@ -1442,39 +1442,39 @@
         <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L17">
         <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
       </c>
       <c r="H18">
         <v>6200</v>
@@ -1483,39 +1483,39 @@
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L18">
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H19">
         <v>4900</v>
@@ -1524,39 +1524,39 @@
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L19">
         <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>5600</v>
@@ -1565,39 +1565,39 @@
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>4400</v>
@@ -1606,39 +1606,39 @@
         <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L21">
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>5900</v>
@@ -1647,39 +1647,39 @@
         <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L22">
         <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H23">
         <v>4700</v>
@@ -1688,39 +1688,39 @@
         <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L23">
         <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>5200</v>
@@ -1729,39 +1729,39 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L24">
         <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
         <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
       </c>
       <c r="H25">
         <v>4600</v>
@@ -1770,39 +1770,39 @@
         <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L25">
         <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>5500</v>
@@ -1811,39 +1811,39 @@
         <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L26">
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>4800</v>
@@ -1852,39 +1852,39 @@
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L27">
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>4500</v>
@@ -1893,39 +1893,39 @@
         <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="L28">
         <v>6</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H29">
         <v>6000</v>
@@ -1934,39 +1934,39 @@
         <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L29">
         <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>5300</v>
@@ -1975,39 +1975,39 @@
         <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K30" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L30">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <v>4900</v>
@@ -2016,16 +2016,16 @@
         <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
